--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail1 Features.xlsx
@@ -3099,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556389758820232</v>
+        <v>1.49640074133043</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.785566401028349</v>
@@ -3188,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.573145346393061</v>
+        <v>1.506566426358606</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.755378613592061</v>
@@ -3277,7 +3277,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584836815916018</v>
+        <v>1.513203032337323</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.24648069809363</v>
@@ -3366,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.598361462677685</v>
+        <v>1.528796858468581</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.070381263586951</v>
@@ -3455,7 +3455,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.606817099730995</v>
+        <v>1.537350421011052</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.781613238816303</v>
@@ -3544,7 +3544,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.610206478535026</v>
+        <v>1.547909743438997</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.957740664588176</v>
@@ -3633,7 +3633,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.618572402827687</v>
+        <v>1.558661781047005</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.180404345228566</v>
@@ -3722,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.633044002159938</v>
+        <v>1.574734790861647</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.181685240551281</v>
@@ -3811,7 +3811,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.632852703250361</v>
+        <v>1.571375327089937</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.877456320818902</v>
@@ -3900,7 +3900,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.624958453863439</v>
+        <v>1.56730832128293</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.021472321407839</v>
@@ -3989,7 +3989,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.634396804575188</v>
+        <v>1.577696870694214</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.945414291937097</v>
@@ -4078,7 +4078,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.634715347749921</v>
+        <v>1.582067021720477</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.056430835958445</v>
@@ -4167,7 +4167,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.642520799386117</v>
+        <v>1.588336107878522</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.129921309306277</v>
@@ -4256,7 +4256,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.654119572904026</v>
+        <v>1.587784983759028</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.056378238952373</v>
@@ -4345,7 +4345,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.665771115222049</v>
+        <v>1.584780781583128</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.102190969009935</v>
@@ -4434,7 +4434,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.675415600010402</v>
+        <v>1.590453045339179</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.122791756517051</v>
@@ -4523,7 +4523,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.683051125747559</v>
+        <v>1.595291179762991</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.978808381008585</v>
@@ -4612,7 +4612,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.703908277712087</v>
+        <v>1.60637213291799</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.267098543913074</v>
@@ -4701,7 +4701,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.699824419902635</v>
+        <v>1.603013985911513</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.267266652486437</v>
@@ -4790,7 +4790,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695378546103722</v>
+        <v>1.593408556992118</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.112472499803473</v>
@@ -4879,7 +4879,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.690623637882479</v>
+        <v>1.593692380809332</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.008986803379703</v>
@@ -4968,7 +4968,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.705478548564844</v>
+        <v>1.601668817656955</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.308743960966229</v>
@@ -5057,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.688717553536442</v>
+        <v>1.586348339031378</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.070663921968463</v>
@@ -5146,7 +5146,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.685429645946792</v>
+        <v>1.590451169292342</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.028369495883148</v>
@@ -5235,7 +5235,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.695106247469224</v>
+        <v>1.593703809751821</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.790536759105003</v>
@@ -5324,7 +5324,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.688630747890427</v>
+        <v>1.587000263968704</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.972951484938252</v>
@@ -5413,7 +5413,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.692799991537341</v>
+        <v>1.593203246580637</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.927464292011276</v>
@@ -5502,7 +5502,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.702388826941157</v>
+        <v>1.603180550254759</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.313970767144717</v>
@@ -5591,7 +5591,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.702543542775169</v>
+        <v>1.612403969228399</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.158883490527807</v>
@@ -5680,7 +5680,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.690614050000322</v>
+        <v>1.609446232915067</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.191694156727192</v>
@@ -5769,7 +5769,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.677435712769371</v>
+        <v>1.599094828298264</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.90473435439562</v>
@@ -5858,7 +5858,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.681621646580457</v>
+        <v>1.606723859401758</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.056394596241106</v>
@@ -5947,7 +5947,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.658958755845438</v>
+        <v>1.58819411482969</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.325809491980166</v>
@@ -6036,7 +6036,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6476800019364</v>
+        <v>1.582517192640143</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.971834764335691</v>
@@ -6125,7 +6125,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647101763223976</v>
+        <v>1.585603898159415</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.890067784864739</v>
@@ -6214,7 +6214,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.647961716267212</v>
+        <v>1.586691517633628</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.156531219838834</v>
@@ -6303,7 +6303,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.633246848620447</v>
+        <v>1.57568908928388</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.203283202701596</v>
@@ -6392,7 +6392,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630726005210941</v>
+        <v>1.567284655887826</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.952806540778245</v>
@@ -6481,7 +6481,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.628926538082327</v>
+        <v>1.55749609653448</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.423278486530335</v>
@@ -6570,7 +6570,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.64685377842256</v>
+        <v>1.57589538752153</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.587530065027946</v>
@@ -6659,7 +6659,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.645663030048195</v>
+        <v>1.577585215963589</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.17423791837231</v>
@@ -6748,7 +6748,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640260303671488</v>
+        <v>1.57169626660317</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.463059675907325</v>
@@ -7034,7 +7034,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.688712994556385</v>
+        <v>1.579928724200298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.67643830893702</v>
@@ -7123,7 +7123,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.683228640086412</v>
+        <v>1.564657494120587</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.45292730415983</v>
@@ -7212,7 +7212,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.68124239012576</v>
+        <v>1.54644659981512</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.417439122232688</v>
@@ -7301,7 +7301,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.682185743986783</v>
+        <v>1.543758848386219</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.568361926644072</v>
@@ -7390,7 +7390,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.6854093196439</v>
+        <v>1.552004675551446</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.509738770927132</v>
@@ -7479,7 +7479,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.694390112396279</v>
+        <v>1.562465578154087</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.369964444968959</v>
@@ -7568,7 +7568,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.69764506694836</v>
+        <v>1.571950177719419</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.206171795631991</v>
@@ -7657,7 +7657,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.710505749183137</v>
+        <v>1.583700856693261</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.32842317866008</v>
@@ -7746,7 +7746,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.71367841469114</v>
+        <v>1.579303059827044</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.288391865906935</v>
@@ -7835,7 +7835,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.692855347898212</v>
+        <v>1.569271507211056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.428572990228964</v>
@@ -7924,7 +7924,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.692332117971787</v>
+        <v>1.564240176454404</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.64715518943824</v>
@@ -8013,7 +8013,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.699291592512099</v>
+        <v>1.567013049023307</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.4030364812013</v>
@@ -8102,7 +8102,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.714072971716731</v>
+        <v>1.57955862133915</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.009491123235398</v>
@@ -8191,7 +8191,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.710736321893253</v>
+        <v>1.575933413814754</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.390781045151854</v>
@@ -8280,7 +8280,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.707657311726095</v>
+        <v>1.569737532107548</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.381653191809304</v>
@@ -8369,7 +8369,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.70870666056792</v>
+        <v>1.580232315640846</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.480655457389134</v>
@@ -8458,7 +8458,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.727829931374743</v>
+        <v>1.610277585236392</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.404242094423302</v>
@@ -8547,7 +8547,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.734594890629104</v>
+        <v>1.635288753748008</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.616803005186717</v>
@@ -8636,7 +8636,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.734142829460686</v>
+        <v>1.635069775698468</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.868599761541221</v>
@@ -8725,7 +8725,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.730834832399695</v>
+        <v>1.634030951065411</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.819295475016386</v>
@@ -8814,7 +8814,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.730672177440061</v>
+        <v>1.638067702607699</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.98871174667788</v>
@@ -8903,7 +8903,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.73849079601932</v>
+        <v>1.643163897740802</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.937088035853895</v>
@@ -8992,7 +8992,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.736305189338775</v>
+        <v>1.64135088063895</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.345846473815802</v>
@@ -9081,7 +9081,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.741471696980192</v>
+        <v>1.650830108566034</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.729737651163753</v>
@@ -9170,7 +9170,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.756041978708348</v>
+        <v>1.66495653991829</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.162635405297014</v>
@@ -9259,7 +9259,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.757617149223734</v>
+        <v>1.670766129017482</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.797123823747449</v>
@@ -9348,7 +9348,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.767855838256104</v>
+        <v>1.680351763974723</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.797620249183085</v>
@@ -9437,7 +9437,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.758282873897192</v>
+        <v>1.674894044426041</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.58647130076834</v>
@@ -9526,7 +9526,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.758094796526673</v>
+        <v>1.674083476356115</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.929568201501219</v>
@@ -9615,7 +9615,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.768246442746859</v>
+        <v>1.682143943155453</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.049263134072242</v>
@@ -9704,7 +9704,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.755592558202979</v>
+        <v>1.653335177043604</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.578983290018829</v>
@@ -9793,7 +9793,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.739560420650593</v>
+        <v>1.634778921119926</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.441734576414379</v>
@@ -9882,7 +9882,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.732231740095749</v>
+        <v>1.624195674777577</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.830721570037322</v>
@@ -9971,7 +9971,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.731312044209125</v>
+        <v>1.622574808938974</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.154415652166526</v>
@@ -10060,7 +10060,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.727142796115305</v>
+        <v>1.613610582968147</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.706219400057182</v>
@@ -10149,7 +10149,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710310202802122</v>
+        <v>1.588013310756255</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.895066358069231</v>
@@ -10238,7 +10238,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685237475861774</v>
+        <v>1.574876551883855</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.585929904934303</v>
@@ -10327,7 +10327,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.682643568831983</v>
+        <v>1.57111982770126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.545484165534221</v>
@@ -10416,7 +10416,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.680451742710981</v>
+        <v>1.565460408539044</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.338864275119775</v>
@@ -10505,7 +10505,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.692131234624292</v>
+        <v>1.566786050591298</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.351833337629877</v>
@@ -10594,7 +10594,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687460143014366</v>
+        <v>1.566543170169847</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.587876488396629</v>
@@ -10683,7 +10683,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.683265211957484</v>
+        <v>1.565397433743446</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.280847255588544</v>
@@ -10969,7 +10969,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.664159102305975</v>
+        <v>1.536215290244707</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.037599525799504</v>
@@ -11058,7 +11058,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.671631450275435</v>
+        <v>1.538969761239605</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.75824664629816</v>
@@ -11147,7 +11147,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.666501977617126</v>
+        <v>1.544616224008738</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.950254226438164</v>
@@ -11236,7 +11236,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.671936157788836</v>
+        <v>1.555646773680331</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.841655602790098</v>
@@ -11325,7 +11325,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.676311612314343</v>
+        <v>1.555999018041264</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.885070091307644</v>
@@ -11414,7 +11414,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680355908099978</v>
+        <v>1.565891810301526</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.579868093546754</v>
@@ -11503,7 +11503,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.685443428255481</v>
+        <v>1.575097867905922</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.360017969015265</v>
@@ -11592,7 +11592,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.700474339097056</v>
+        <v>1.587954343128549</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.805932183922479</v>
@@ -11681,7 +11681,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700118700489144</v>
+        <v>1.58706371181495</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.71891964671698</v>
@@ -11770,7 +11770,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.69655892918756</v>
+        <v>1.587610327834305</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.858710105896385</v>
@@ -11859,7 +11859,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.702661618020987</v>
+        <v>1.590209723595043</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.664506527557588</v>
@@ -11948,7 +11948,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.707450544220902</v>
+        <v>1.597897841139573</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.827114975747019</v>
@@ -12037,7 +12037,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.711663960266544</v>
+        <v>1.597480705065321</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.838956692566183</v>
@@ -12126,7 +12126,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.716167056424528</v>
+        <v>1.600586734080625</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.811506035346615</v>
@@ -12215,7 +12215,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.720446868894119</v>
+        <v>1.598988002840786</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.907764108066246</v>
@@ -12304,7 +12304,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.726500472284847</v>
+        <v>1.607376083503334</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.712766713779286</v>
@@ -12393,7 +12393,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.730510736089365</v>
+        <v>1.618213200643075</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.591334551120999</v>
@@ -12482,7 +12482,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.737969548687915</v>
+        <v>1.614431192183513</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.73319765443343</v>
@@ -12571,7 +12571,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.739623741608513</v>
+        <v>1.616364394174349</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.740101765174049</v>
@@ -12660,7 +12660,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742313915251799</v>
+        <v>1.621955894834243</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.762785770829047</v>
@@ -12749,7 +12749,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.731459354819796</v>
+        <v>1.618754012004617</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.618365012952513</v>
@@ -12838,7 +12838,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.732453285146416</v>
+        <v>1.619560108167495</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.443570994921182</v>
@@ -12927,7 +12927,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.724894357487997</v>
+        <v>1.617707905356938</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.786919468533169</v>
@@ -13016,7 +13016,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.725751042793133</v>
+        <v>1.617760437077113</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.824882697087825</v>
@@ -13105,7 +13105,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.733052415292468</v>
+        <v>1.625710752434745</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.982029304751221</v>
@@ -13194,7 +13194,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.728320008116738</v>
+        <v>1.622135667267807</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.812217107499399</v>
@@ -13283,7 +13283,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.728995619783371</v>
+        <v>1.623888562490648</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.062309532566556</v>
@@ -13372,7 +13372,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.728212646594151</v>
+        <v>1.623714482606539</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.92305471548964</v>
@@ -13461,7 +13461,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.733724285252299</v>
+        <v>1.629577278117823</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.806915552597161</v>
@@ -13550,7 +13550,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.735033399074253</v>
+        <v>1.640138879694214</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.08787874887589</v>
@@ -13639,7 +13639,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.725286488801378</v>
+        <v>1.629693245723241</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.047726025202429</v>
@@ -13728,7 +13728,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.723768631790724</v>
+        <v>1.624047149576094</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.158801636200108</v>
@@ -13817,7 +13817,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.725843356906718</v>
+        <v>1.622809090544001</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.952465136262456</v>
@@ -13906,7 +13906,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.718523562412366</v>
+        <v>1.617015145155206</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.648000113157026</v>
@@ -13995,7 +13995,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.728924886303607</v>
+        <v>1.627402761670135</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.385252004507411</v>
@@ -14084,7 +14084,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.73865695611173</v>
+        <v>1.632394727707155</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.700259490389216</v>
@@ -14173,7 +14173,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.739214531755193</v>
+        <v>1.633582872233401</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.56777522124648</v>
@@ -14262,7 +14262,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.73751346807556</v>
+        <v>1.625029887346205</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.726601325474903</v>
@@ -14351,7 +14351,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.731595412477209</v>
+        <v>1.616488828583002</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.248103975878049</v>
@@ -14440,7 +14440,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.730683702916814</v>
+        <v>1.611917135235575</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.304992700562412</v>
@@ -14529,7 +14529,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.727876178178435</v>
+        <v>1.606720768465696</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.878832026333805</v>
@@ -14618,7 +14618,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.739199442905494</v>
+        <v>1.611972071249672</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.350867989911858</v>
@@ -14904,7 +14904,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.72611427910168</v>
+        <v>1.597933149294419</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.074123734332092</v>
@@ -14993,7 +14993,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.72973969522098</v>
+        <v>1.583203238215698</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.697718745975263</v>
@@ -15082,7 +15082,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.728453133338362</v>
+        <v>1.577619276573428</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.326133424673057</v>
@@ -15171,7 +15171,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.723728031143197</v>
+        <v>1.569689833558997</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.201087668991669</v>
@@ -15260,7 +15260,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.721407351584405</v>
+        <v>1.567081682140237</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.118179660503505</v>
@@ -15349,7 +15349,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.7251556716878</v>
+        <v>1.565414744632032</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.008504402704874</v>
@@ -15438,7 +15438,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.725395548711683</v>
+        <v>1.573009444804627</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.357488900860777</v>
@@ -15527,7 +15527,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.728102698757614</v>
+        <v>1.57360055136132</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.159028461984206</v>
@@ -15616,7 +15616,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.726271065511168</v>
+        <v>1.570190072014313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.746775168801482</v>
@@ -15705,7 +15705,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.730430742515156</v>
+        <v>1.570721213727905</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.887339823187148</v>
@@ -15794,7 +15794,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.732722795688382</v>
+        <v>1.564110871179652</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.247531094888182</v>
@@ -15883,7 +15883,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.733259336502878</v>
+        <v>1.558188292924149</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.41491112610946</v>
@@ -15972,7 +15972,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.740660840615417</v>
+        <v>1.564044315744616</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.823791718512437</v>
@@ -16061,7 +16061,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.743568480616269</v>
+        <v>1.56508304003098</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.744970346629946</v>
@@ -16150,7 +16150,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.740614617585521</v>
+        <v>1.562391420421301</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.699401219397166</v>
@@ -16239,7 +16239,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.74283904503418</v>
+        <v>1.567112300279529</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.591299396989654</v>
@@ -16328,7 +16328,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.743720813220153</v>
+        <v>1.587472887717056</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.484791193998131</v>
@@ -16417,7 +16417,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753280170082117</v>
+        <v>1.601873791697465</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.759997938571746</v>
@@ -16506,7 +16506,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.75751239339717</v>
+        <v>1.603607680403183</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.770266511245534</v>
@@ -16595,7 +16595,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.757128616428536</v>
+        <v>1.602136677780657</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.590863366935024</v>
@@ -16684,7 +16684,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.750123208964076</v>
+        <v>1.606203498425126</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.234154831565569</v>
@@ -16773,7 +16773,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.75434377918157</v>
+        <v>1.610739233289143</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.333630008139462</v>
@@ -16862,7 +16862,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.753071364841822</v>
+        <v>1.612410230974623</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.886477464617051</v>
@@ -16951,7 +16951,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.754634819824025</v>
+        <v>1.623071253868188</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.382305958274215</v>
@@ -17040,7 +17040,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.760571639178149</v>
+        <v>1.636652474127913</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.497192980672036</v>
@@ -17129,7 +17129,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.759866380422981</v>
+        <v>1.646582247910427</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.580247013133301</v>
@@ -17218,7 +17218,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.755940266610705</v>
+        <v>1.650511078686828</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.137885517737793</v>
@@ -17307,7 +17307,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.754321566506284</v>
+        <v>1.653021568255617</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.437957940449502</v>
@@ -17396,7 +17396,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.757717768832062</v>
+        <v>1.662660898033181</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.284972940393943</v>
@@ -17485,7 +17485,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.757388668652978</v>
+        <v>1.660431842193187</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.266148634217266</v>
@@ -17574,7 +17574,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.74601583172407</v>
+        <v>1.641972926719229</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.193963347736681</v>
@@ -17663,7 +17663,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.748396699205032</v>
+        <v>1.635772107853444</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.102978343433038</v>
@@ -17752,7 +17752,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.74370540508288</v>
+        <v>1.630249513574604</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.785776907209155</v>
@@ -17841,7 +17841,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.747124270094691</v>
+        <v>1.62573985393173</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.160201496233655</v>
@@ -17930,7 +17930,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.748350952093809</v>
+        <v>1.624385548617175</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.528307033949121</v>
@@ -18019,7 +18019,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.740682595490302</v>
+        <v>1.601155847015324</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.885591846483822</v>
@@ -18108,7 +18108,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.741355142823611</v>
+        <v>1.60181540783475</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.357045657322334</v>
@@ -18197,7 +18197,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.735834245278153</v>
+        <v>1.594372209983429</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.889541100033658</v>
@@ -18286,7 +18286,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.734183816176726</v>
+        <v>1.59269749459124</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.851664515864824</v>
@@ -18375,7 +18375,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.730257724082424</v>
+        <v>1.587032321577843</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.744699002890326</v>
@@ -18464,7 +18464,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.726887531302646</v>
+        <v>1.589882471002407</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.868079307914933</v>
@@ -18553,7 +18553,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.736290770770813</v>
+        <v>1.588538025487486</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.603248682800333</v>
@@ -18839,7 +18839,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.582020546984062</v>
+        <v>1.528715099421904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.06419811173139</v>
@@ -18928,7 +18928,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.595715826968902</v>
+        <v>1.534885718373041</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.878104833148677</v>
@@ -19017,7 +19017,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.615092637070282</v>
+        <v>1.545819058491064</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.260931722120946</v>
@@ -19106,7 +19106,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.60328847132768</v>
+        <v>1.539155571942396</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.044574473873138</v>
@@ -19195,7 +19195,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608729907118368</v>
+        <v>1.543512255032814</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.897612723205775</v>
@@ -19284,7 +19284,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.615881621635368</v>
+        <v>1.551930365905697</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.03941147130171</v>
@@ -19373,7 +19373,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.624244073480338</v>
+        <v>1.558503258335551</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.023554281628722</v>
@@ -19462,7 +19462,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.6464155239156</v>
+        <v>1.577282665948226</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.016822937725447</v>
@@ -19551,7 +19551,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.659006958819232</v>
+        <v>1.588700854029473</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.953523368449848</v>
@@ -19640,7 +19640,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.65629833327235</v>
+        <v>1.585839491262245</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.883862355009328</v>
@@ -19729,7 +19729,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.662828288837807</v>
+        <v>1.592187038916113</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.949812648136483</v>
@@ -19818,7 +19818,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66579873268152</v>
+        <v>1.594564620005383</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.140214164574781</v>
@@ -19907,7 +19907,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.664841748616201</v>
+        <v>1.595812236466027</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.182953155952769</v>
@@ -19996,7 +19996,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.669863284769495</v>
+        <v>1.586268881819695</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.268018603269369</v>
@@ -20085,7 +20085,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.678002092391518</v>
+        <v>1.58768844582166</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.22377990858234</v>
@@ -20174,7 +20174,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.682027408440942</v>
+        <v>1.595077000476953</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.453965693330733</v>
@@ -20263,7 +20263,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.687221674919517</v>
+        <v>1.603342808987914</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.548413213756849</v>
@@ -20352,7 +20352,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69830103103857</v>
+        <v>1.619444957176173</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.546988409583637</v>
@@ -20441,7 +20441,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.705833250090049</v>
+        <v>1.628877942534192</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.241660905704586</v>
@@ -20530,7 +20530,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.71087514248948</v>
+        <v>1.630041143110018</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.575299155835383</v>
@@ -20619,7 +20619,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.706793896978394</v>
+        <v>1.632560330374213</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.589087290509156</v>
@@ -20708,7 +20708,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.714684799115467</v>
+        <v>1.636332150103189</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.61325077815807</v>
@@ -20797,7 +20797,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708373484170804</v>
+        <v>1.634312132870403</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.626440286778822</v>
@@ -20886,7 +20886,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.705868967133108</v>
+        <v>1.636888408943536</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.226960101288592</v>
@@ -20975,7 +20975,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.718504372311194</v>
+        <v>1.64790145143101</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.404665602125715</v>
@@ -21064,7 +21064,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.709339502237514</v>
+        <v>1.637898328190463</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.422441895598001</v>
@@ -21153,7 +21153,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.715231776454105</v>
+        <v>1.64433059542411</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.548429334457805</v>
@@ -21242,7 +21242,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.717518439210918</v>
+        <v>1.648341146759425</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.410682499130543</v>
@@ -21331,7 +21331,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.723662097219484</v>
+        <v>1.662124803998426</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.815933521526616</v>
@@ -21420,7 +21420,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.723217066398518</v>
+        <v>1.662184031476542</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.755195070045438</v>
@@ -21509,7 +21509,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.712741846498704</v>
+        <v>1.639201918316433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.373322654844104</v>
@@ -21598,7 +21598,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.711861131529795</v>
+        <v>1.635616061416924</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.552122049306359</v>
@@ -21687,7 +21687,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.701538868238056</v>
+        <v>1.625193040270079</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.512746660841821</v>
@@ -21776,7 +21776,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682792246330461</v>
+        <v>1.601796012292311</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.220989696706183</v>
@@ -21865,7 +21865,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.680451347367403</v>
+        <v>1.59746264032528</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.365266617681498</v>
@@ -21954,7 +21954,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.677855533135023</v>
+        <v>1.588828476888938</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.197677964335322</v>
@@ -22043,7 +22043,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.649867127480256</v>
+        <v>1.568899200248794</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.975935389876934</v>
@@ -22132,7 +22132,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639061727863437</v>
+        <v>1.558309153549395</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.990128836976853</v>
@@ -22221,7 +22221,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.641160370165312</v>
+        <v>1.555545243798627</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.094754788498934</v>
@@ -22310,7 +22310,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.647549440252932</v>
+        <v>1.558558304807183</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.189761695314332</v>
@@ -22399,7 +22399,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.64935233758095</v>
+        <v>1.565276214672294</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.951114821252185</v>
@@ -22488,7 +22488,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647971383448326</v>
+        <v>1.560727572522838</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.970675852412874</v>
@@ -22774,7 +22774,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.56231891269152</v>
+        <v>1.473533459344679</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.972777765253975</v>
@@ -22863,7 +22863,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.588594108171631</v>
+        <v>1.486262508696168</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.795674197034739</v>
@@ -22952,7 +22952,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.570429024107865</v>
+        <v>1.472929680632692</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.356028657406693</v>
@@ -23041,7 +23041,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.576864195006009</v>
+        <v>1.479067324909573</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.319274393785437</v>
@@ -23130,7 +23130,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.579378363210264</v>
+        <v>1.48525179151654</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.214412534657986</v>
@@ -23219,7 +23219,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.583255479696663</v>
+        <v>1.496685321792757</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.293913473445547</v>
@@ -23308,7 +23308,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.585944283813805</v>
+        <v>1.498665197920477</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.272096087886623</v>
@@ -23397,7 +23397,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.598584328571159</v>
+        <v>1.516001390178859</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.312659658478214</v>
@@ -23486,7 +23486,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593869756617226</v>
+        <v>1.506376457165555</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.27213336049718</v>
@@ -23575,7 +23575,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589045228495674</v>
+        <v>1.501711507392006</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.278953774612682</v>
@@ -23664,7 +23664,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.586021349437794</v>
+        <v>1.502754448584845</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.260240832396259</v>
@@ -23753,7 +23753,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584388412523493</v>
+        <v>1.50648176667597</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.330555441218856</v>
@@ -23842,7 +23842,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.581299505673526</v>
+        <v>1.495777877596606</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.372473358859945</v>
@@ -23931,7 +23931,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.591690716736499</v>
+        <v>1.495259856503545</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.363777676486581</v>
@@ -24020,7 +24020,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.59766226531702</v>
+        <v>1.493299151987506</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.337950194140876</v>
@@ -24109,7 +24109,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.600072246516463</v>
+        <v>1.495759736288222</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.350195908762381</v>
@@ -24198,7 +24198,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.594293820390366</v>
+        <v>1.495186184712021</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.405339529322156</v>
@@ -24287,7 +24287,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.642547659354118</v>
+        <v>1.526531700685999</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.910828874794773</v>
@@ -24376,7 +24376,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.643716780056424</v>
+        <v>1.524971877289978</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.257773071347049</v>
@@ -24465,7 +24465,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.653341474365613</v>
+        <v>1.530530794400314</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.188615148196389</v>
@@ -24554,7 +24554,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642511079771016</v>
+        <v>1.531274585366449</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.099423632244106</v>
@@ -24643,7 +24643,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.65619673655432</v>
+        <v>1.538932781898</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.010276495990321</v>
@@ -24732,7 +24732,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.641996966816587</v>
+        <v>1.526584233962938</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.247462830256354</v>
@@ -24821,7 +24821,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.639813334470486</v>
+        <v>1.532636037592151</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.103381315384892</v>
@@ -24910,7 +24910,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.647639608085313</v>
+        <v>1.54003581832449</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.072618277435413</v>
@@ -24999,7 +24999,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.642356059079662</v>
+        <v>1.542185644664596</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.139478904789284</v>
@@ -25088,7 +25088,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.640867322153622</v>
+        <v>1.541889538204283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.717738560343791</v>
@@ -25177,7 +25177,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.647091591863773</v>
+        <v>1.554704401300708</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.224818861539843</v>
@@ -25266,7 +25266,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65526381392871</v>
+        <v>1.573647411441922</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.092036476708477</v>
@@ -25355,7 +25355,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.646153990306376</v>
+        <v>1.570927138072057</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.066230702707868</v>
@@ -25444,7 +25444,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.640217306240936</v>
+        <v>1.557228121527615</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.058803957274888</v>
@@ -25533,7 +25533,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.649709254541103</v>
+        <v>1.564293398199141</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.027693946514333</v>
@@ -25622,7 +25622,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634931571516674</v>
+        <v>1.548218815810822</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.224584881456783</v>
@@ -25711,7 +25711,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.622221961356938</v>
+        <v>1.529935183410689</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.05866477238258</v>
@@ -25800,7 +25800,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.622030322346453</v>
+        <v>1.531956794648042</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.901136498862368</v>
@@ -25889,7 +25889,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628974194745597</v>
+        <v>1.536692437499113</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.886148569209237</v>
@@ -25978,7 +25978,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618513581140302</v>
+        <v>1.532926154839275</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.318730072898557</v>
@@ -26067,7 +26067,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616324540709369</v>
+        <v>1.528851837946702</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.057121128225729</v>
@@ -26156,7 +26156,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615163953788061</v>
+        <v>1.52030803410841</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.234640439184964</v>
@@ -26245,7 +26245,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623638142406817</v>
+        <v>1.528360722075711</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.351152345243801</v>
@@ -26334,7 +26334,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.627013252158041</v>
+        <v>1.526760385216447</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.964891930661695</v>
@@ -26423,7 +26423,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628640759508002</v>
+        <v>1.523499085389689</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.257108074757824</v>
